--- a/biology/Histoire de la zoologie et de la botanique/James_Hopson/James_Hopson.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/James_Hopson/James_Hopson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">James Allen Hopson, né le 27 août 1935, est un paléontologue et professeur américain de l'Université de Chicago. Il a obtenu son doctorat à Chicago en 1965 et a travaillé à Yale avant de retourner à Chicago en 1967 en tant que membre du corps professoral en anatomie, et a également été associé de recherche au Field Museum of Natural History depuis 1971[1]. Ses travaux sont principalement consacrée à l'évolution des synapsides ainsi que de la paléobiologie des dinosaures non-aviens[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">James Allen Hopson, né le 27 août 1935, est un paléontologue et professeur américain de l'Université de Chicago. Il a obtenu son doctorat à Chicago en 1965 et a travaillé à Yale avant de retourner à Chicago en 1967 en tant que membre du corps professoral en anatomie, et a également été associé de recherche au Field Museum of Natural History depuis 1971. Ses travaux sont principalement consacrée à l'évolution des synapsides ainsi que de la paléobiologie des dinosaures non-aviens.
 </t>
         </is>
       </c>
